--- a/Banco Central/13/2/2/Activos consolidados del tesoro 2007 a 2021 - Mensual.xlsx
+++ b/Banco Central/13/2/2/Activos consolidados del tesoro 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t>Serie</t>
   </si>
@@ -560,6 +560,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -917,7 +920,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K172"/>
+  <dimension ref="A1:K173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5512,6 +5515,41 @@
         <v>339</v>
       </c>
     </row>
+    <row r="173" spans="1:11">
+      <c r="A173" t="s">
+        <v>182</v>
+      </c>
+      <c r="B173">
+        <v>12317</v>
+      </c>
+      <c r="C173">
+        <v>4930</v>
+      </c>
+      <c r="D173">
+        <v>7386</v>
+      </c>
+      <c r="E173">
+        <v>5891</v>
+      </c>
+      <c r="F173">
+        <v>1216</v>
+      </c>
+      <c r="G173">
+        <v>4676</v>
+      </c>
+      <c r="H173">
+        <v>202</v>
+      </c>
+      <c r="I173">
+        <v>202</v>
+      </c>
+      <c r="J173">
+        <v>691</v>
+      </c>
+      <c r="K173">
+        <v>321</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
